--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pspn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pspn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>9.127718</v>
       </c>
       <c r="I2">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="J2">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.632885</v>
+        <v>3.21276</v>
       </c>
       <c r="N2">
-        <v>10.898655</v>
+        <v>9.63828</v>
       </c>
       <c r="O2">
-        <v>0.437284956640454</v>
+        <v>0.3952107490920524</v>
       </c>
       <c r="P2">
-        <v>0.4372849566404539</v>
+        <v>0.3952107490920524</v>
       </c>
       <c r="Q2">
-        <v>11.05331660214333</v>
+        <v>9.775055760559999</v>
       </c>
       <c r="R2">
-        <v>99.47984941929001</v>
+        <v>87.97550184504</v>
       </c>
       <c r="S2">
-        <v>0.4297363257785342</v>
+        <v>0.2788421082710173</v>
       </c>
       <c r="T2">
-        <v>0.4297363257785341</v>
+        <v>0.2788421082710173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>9.127718</v>
       </c>
       <c r="I3">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="J3">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>11.654988</v>
       </c>
       <c r="O3">
-        <v>0.4676311822169809</v>
+        <v>0.4779044122124365</v>
       </c>
       <c r="P3">
-        <v>0.4676311822169809</v>
+        <v>0.4779044122124365</v>
       </c>
       <c r="Q3">
         <v>11.82038263970933</v>
@@ -638,10 +638,10 @@
         <v>106.383443757384</v>
       </c>
       <c r="S3">
-        <v>0.4595586996847689</v>
+        <v>0.3371868658924006</v>
       </c>
       <c r="T3">
-        <v>0.4595586996847689</v>
+        <v>0.3371868658924006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,72 +670,72 @@
         <v>9.127718</v>
       </c>
       <c r="I4">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="J4">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.004340666666666667</v>
+        <v>1.031476333333333</v>
       </c>
       <c r="N4">
-        <v>0.013022</v>
+        <v>3.094429</v>
       </c>
       <c r="O4">
-        <v>0.0005224795816889323</v>
+        <v>0.1268848386955111</v>
       </c>
       <c r="P4">
-        <v>0.0005224795816889323</v>
+        <v>0.1268848386955111</v>
       </c>
       <c r="Q4">
-        <v>0.01320679375511111</v>
+        <v>3.138341698113556</v>
       </c>
       <c r="R4">
-        <v>0.118861143796</v>
+        <v>28.245075283022</v>
       </c>
       <c r="S4">
-        <v>0.000513460278748898</v>
+        <v>0.08952397173094949</v>
       </c>
       <c r="T4">
-        <v>0.000513460278748898</v>
+        <v>0.08952397173094949</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.042572666666667</v>
+        <v>0.271593</v>
       </c>
       <c r="H5">
-        <v>9.127718</v>
+        <v>0.814779</v>
       </c>
       <c r="I5">
-        <v>0.9827375016055572</v>
+        <v>0.06298066216581918</v>
       </c>
       <c r="J5">
-        <v>0.9827375016055572</v>
+        <v>0.06298066216581918</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7855989999999999</v>
+        <v>3.21276</v>
       </c>
       <c r="N5">
-        <v>2.356797</v>
+        <v>9.63828</v>
       </c>
       <c r="O5">
-        <v>0.09456138156087625</v>
+        <v>0.3952107490920524</v>
       </c>
       <c r="P5">
-        <v>0.09456138156087625</v>
+        <v>0.3952107490920524</v>
       </c>
       <c r="Q5">
-        <v>2.390242044360666</v>
+        <v>0.87256312668</v>
       </c>
       <c r="R5">
-        <v>21.512178399246</v>
+        <v>7.85306814012</v>
       </c>
       <c r="S5">
-        <v>0.09292901586350533</v>
+        <v>0.02489063467286689</v>
       </c>
       <c r="T5">
-        <v>0.09292901586350533</v>
+        <v>0.02489063467286689</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05344499999999999</v>
+        <v>0.271593</v>
       </c>
       <c r="H6">
-        <v>0.160335</v>
+        <v>0.814779</v>
       </c>
       <c r="I6">
-        <v>0.01726249839444284</v>
+        <v>0.06298066216581918</v>
       </c>
       <c r="J6">
-        <v>0.01726249839444284</v>
+        <v>0.06298066216581918</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.632885</v>
+        <v>3.884996</v>
       </c>
       <c r="N6">
-        <v>10.898655</v>
+        <v>11.654988</v>
       </c>
       <c r="O6">
-        <v>0.437284956640454</v>
+        <v>0.4779044122124365</v>
       </c>
       <c r="P6">
-        <v>0.4372849566404539</v>
+        <v>0.4779044122124365</v>
       </c>
       <c r="Q6">
-        <v>0.194159538825</v>
+        <v>1.055137718628</v>
       </c>
       <c r="R6">
-        <v>1.747435849425</v>
+        <v>9.496239467652</v>
       </c>
       <c r="S6">
-        <v>0.007548630861919843</v>
+        <v>0.03009873633310585</v>
       </c>
       <c r="T6">
-        <v>0.007548630861919842</v>
+        <v>0.03009873633310585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05344499999999999</v>
+        <v>0.271593</v>
       </c>
       <c r="H7">
-        <v>0.160335</v>
+        <v>0.814779</v>
       </c>
       <c r="I7">
-        <v>0.01726249839444284</v>
+        <v>0.06298066216581918</v>
       </c>
       <c r="J7">
-        <v>0.01726249839444284</v>
+        <v>0.06298066216581918</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,42 +868,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.884996</v>
+        <v>1.031476333333333</v>
       </c>
       <c r="N7">
-        <v>11.654988</v>
+        <v>3.094429</v>
       </c>
       <c r="O7">
-        <v>0.4676311822169809</v>
+        <v>0.1268848386955111</v>
       </c>
       <c r="P7">
-        <v>0.4676311822169809</v>
+        <v>0.1268848386955111</v>
       </c>
       <c r="Q7">
-        <v>0.20763361122</v>
+        <v>0.2801417517990001</v>
       </c>
       <c r="R7">
-        <v>1.86870250098</v>
+        <v>2.521275766191</v>
       </c>
       <c r="S7">
-        <v>0.008072482532212039</v>
+        <v>0.007991291159846448</v>
       </c>
       <c r="T7">
-        <v>0.008072482532212039</v>
+        <v>0.007991291159846448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -912,60 +912,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.05344499999999999</v>
+        <v>0.3383276666666666</v>
       </c>
       <c r="H8">
-        <v>0.160335</v>
+        <v>1.014983</v>
       </c>
       <c r="I8">
-        <v>0.01726249839444284</v>
+        <v>0.07845600024920825</v>
       </c>
       <c r="J8">
-        <v>0.01726249839444284</v>
+        <v>0.07845600024920826</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.004340666666666667</v>
+        <v>3.21276</v>
       </c>
       <c r="N8">
-        <v>0.013022</v>
+        <v>9.63828</v>
       </c>
       <c r="O8">
-        <v>0.0005224795816889323</v>
+        <v>0.3952107490920524</v>
       </c>
       <c r="P8">
-        <v>0.0005224795816889323</v>
+        <v>0.3952107490920524</v>
       </c>
       <c r="Q8">
-        <v>0.00023198693</v>
+        <v>1.08696559436</v>
       </c>
       <c r="R8">
-        <v>0.00208788237</v>
+        <v>9.782690349239999</v>
       </c>
       <c r="S8">
-        <v>9.01930294003436E-06</v>
+        <v>0.03100665462925585</v>
       </c>
       <c r="T8">
-        <v>9.01930294003436E-06</v>
+        <v>0.03100665462925585</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.05344499999999999</v>
+        <v>0.3383276666666666</v>
       </c>
       <c r="H9">
-        <v>0.160335</v>
+        <v>1.014983</v>
       </c>
       <c r="I9">
-        <v>0.01726249839444284</v>
+        <v>0.07845600024920825</v>
       </c>
       <c r="J9">
-        <v>0.01726249839444284</v>
+        <v>0.07845600024920826</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7855989999999999</v>
+        <v>3.884996</v>
       </c>
       <c r="N9">
-        <v>2.356797</v>
+        <v>11.654988</v>
       </c>
       <c r="O9">
-        <v>0.09456138156087625</v>
+        <v>0.4779044122124365</v>
       </c>
       <c r="P9">
-        <v>0.09456138156087625</v>
+        <v>0.4779044122124365</v>
       </c>
       <c r="Q9">
-        <v>0.04198633855499999</v>
+        <v>1.314401631689333</v>
       </c>
       <c r="R9">
-        <v>0.3778770469949999</v>
+        <v>11.829614685204</v>
       </c>
       <c r="S9">
-        <v>0.001632365697370923</v>
+        <v>0.03749446868363664</v>
       </c>
       <c r="T9">
-        <v>0.001632365697370923</v>
+        <v>0.03749446868363664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.3383276666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.014983</v>
+      </c>
+      <c r="I10">
+        <v>0.07845600024920825</v>
+      </c>
+      <c r="J10">
+        <v>0.07845600024920826</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.031476333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.094429</v>
+      </c>
+      <c r="O10">
+        <v>0.1268848386955111</v>
+      </c>
+      <c r="P10">
+        <v>0.1268848386955111</v>
+      </c>
+      <c r="Q10">
+        <v>0.3489769810785556</v>
+      </c>
+      <c r="R10">
+        <v>3.140792829707</v>
+      </c>
+      <c r="S10">
+        <v>0.009954876936315769</v>
+      </c>
+      <c r="T10">
+        <v>0.009954876936315771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.6598303333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.979491</v>
+      </c>
+      <c r="I11">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="J11">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.21276</v>
+      </c>
+      <c r="N11">
+        <v>9.63828</v>
+      </c>
+      <c r="O11">
+        <v>0.3952107490920524</v>
+      </c>
+      <c r="P11">
+        <v>0.3952107490920524</v>
+      </c>
+      <c r="Q11">
+        <v>2.11987650172</v>
+      </c>
+      <c r="R11">
+        <v>19.07888851548</v>
+      </c>
+      <c r="S11">
+        <v>0.06047135151891242</v>
+      </c>
+      <c r="T11">
+        <v>0.06047135151891242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.6598303333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.979491</v>
+      </c>
+      <c r="I12">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="J12">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.884996</v>
+      </c>
+      <c r="N12">
+        <v>11.654988</v>
+      </c>
+      <c r="O12">
+        <v>0.4779044122124365</v>
+      </c>
+      <c r="P12">
+        <v>0.4779044122124365</v>
+      </c>
+      <c r="Q12">
+        <v>2.563438205678666</v>
+      </c>
+      <c r="R12">
+        <v>23.070943851108</v>
+      </c>
+      <c r="S12">
+        <v>0.07312434130329333</v>
+      </c>
+      <c r="T12">
+        <v>0.07312434130329333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.6598303333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.979491</v>
+      </c>
+      <c r="I13">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="J13">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.031476333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.094429</v>
+      </c>
+      <c r="O13">
+        <v>0.1268848386955111</v>
+      </c>
+      <c r="P13">
+        <v>0.1268848386955111</v>
+      </c>
+      <c r="Q13">
+        <v>0.6805993728487778</v>
+      </c>
+      <c r="R13">
+        <v>6.125394355639</v>
+      </c>
+      <c r="S13">
+        <v>0.01941469886839941</v>
+      </c>
+      <c r="T13">
+        <v>0.01941469886839941</v>
       </c>
     </row>
   </sheetData>
